--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-procedure-device-action-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-procedure-device-action-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T06:49:20+00:00</t>
+    <t>2022-09-07T08:56:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-procedure-device-action-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-procedure-device-action-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T08:56:04+00:00</t>
+    <t>2022-09-07T09:25:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-procedure-device-action-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-procedure-device-action-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T09:25:06+00:00</t>
+    <t>2022-09-07T10:55:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-procedure-device-action-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-procedure-device-action-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T10:55:00+00:00</t>
+    <t>2022-09-07T11:02:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-procedure-device-action-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-procedure-device-action-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T11:02:51+00:00</t>
+    <t>2022-09-07T12:57:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-procedure-device-action-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-procedure-device-action-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T12:57:45+00:00</t>
+    <t>2022-09-07T13:25:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-procedure-device-action-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-procedure-device-action-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T13:25:36+00:00</t>
+    <t>2022-09-07T14:04:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-procedure-device-action-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-procedure-device-action-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T14:04:03+00:00</t>
+    <t>2022-09-09T00:36:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-procedure-device-action-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-procedure-device-action-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-09T00:36:28+00:00</t>
+    <t>2022-09-09T12:25:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-procedure-device-action-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-procedure-device-action-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-09T12:25:43+00:00</t>
+    <t>2022-09-12T18:58:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-procedure-device-action-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-procedure-device-action-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-12T18:58:52+00:00</t>
+    <t>2022-09-12T21:58:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-procedure-device-action-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-procedure-device-action-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-12T21:58:47+00:00</t>
+    <t>2022-09-14T09:18:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-procedure-device-action-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-procedure-device-action-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T09:18:52+00:00</t>
+    <t>2022-09-14T09:38:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-procedure-device-action-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-procedure-device-action-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T09:38:33+00:00</t>
+    <t>2022-09-14T12:56:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-procedure-device-action-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-procedure-device-action-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T12:56:24+00:00</t>
+    <t>2022-09-15T21:18:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-procedure-device-action-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-procedure-device-action-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-15T21:18:29+00:00</t>
+    <t>2022-09-15T22:47:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-procedure-device-action-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-procedure-device-action-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-15T22:47:08+00:00</t>
+    <t>2022-09-16T00:49:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-procedure-device-action-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-procedure-device-action-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T00:49:51+00:00</t>
+    <t>2022-09-16T00:58:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-procedure-device-action-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-procedure-device-action-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T00:58:14+00:00</t>
+    <t>2022-09-16T01:34:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-procedure-device-action-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-procedure-device-action-cs.xlsx
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T01:34:43+00:00</t>
+    <t>2022-09-16T02:51:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-procedure-device-action-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-procedure-device-action-cs.xlsx
@@ -23,7 +23,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_ProcedureDeviceAction_CS</t>
+    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_Undefined_CS</t>
   </si>
   <si>
     <t>Version</t>
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T02:51:37+00:00</t>
+    <t>2022-09-16T03:47:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-procedure-device-action-cs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/CodeSystem-jp-procedure-device-action-cs.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>Property</t>
   </si>
@@ -56,7 +56,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T03:47:56+00:00</t>
+    <t>2022-09-16</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -80,7 +80,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>処置の実施中に機器に起こった変化を示すコード</t>
+    <t>処置の実施中に機器に起こった変化を示すコード（未使用）</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -96,9 +96,6 @@
   </si>
   <si>
     <t>Value Set (all codes)</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ProcedureDeviceAction_VS</t>
   </si>
   <si>
     <t>Hierarchy</t>
@@ -383,45 +380,43 @@
       <c r="A16" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="B16" t="s" s="2">
-        <v>28</v>
-      </c>
+      <c r="B16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>32</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>33</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B22" s="2"/>
     </row>
